--- a/pred_ohlcv/54_23/2019-10-16 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 HDAC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,10 +415,10 @@
         <v>36.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>36.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>36.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>36.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         <v>36.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         <v>36.6</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -714,10 +714,10 @@
         <v>36.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,10 +737,10 @@
         <v>36.6</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -760,7 +760,7 @@
         <v>36.6</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>36.6</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>36.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>36.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>36.6</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,7 +944,7 @@
         <v>36.6</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -967,10 +967,10 @@
         <v>36.8</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>36.9</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>36.9</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1036,10 @@
         <v>36.9</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>37</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1151,10 +1151,10 @@
         <v>37.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>37.3</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>37.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>37.4</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>37.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>37.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1289,10 +1289,10 @@
         <v>37.5</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1312,10 +1312,10 @@
         <v>37.5</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1335,10 +1335,10 @@
         <v>37.3</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1358,10 +1358,10 @@
         <v>36.9</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>36.8</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1427,10 +1427,10 @@
         <v>37</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1450,10 +1450,10 @@
         <v>37</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1473,10 +1473,10 @@
         <v>37</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1496,10 +1496,10 @@
         <v>37</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1519,10 +1519,10 @@
         <v>36.9</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1542,10 +1542,10 @@
         <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1565,10 +1565,10 @@
         <v>37.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1588,10 +1588,10 @@
         <v>36.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1611,10 +1611,10 @@
         <v>36.9</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1634,10 +1634,10 @@
         <v>36.9</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1657,10 +1657,10 @@
         <v>36.9</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1680,10 +1680,10 @@
         <v>36.8</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1703,10 +1703,10 @@
         <v>36.8</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1726,10 +1726,10 @@
         <v>36.9</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1749,10 +1749,10 @@
         <v>36.9</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1772,10 +1772,10 @@
         <v>36.6</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1841,10 +1841,10 @@
         <v>36.9</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1864,10 +1864,10 @@
         <v>37.1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1887,10 +1887,10 @@
         <v>37.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1933,10 +1933,10 @@
         <v>36.8</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1956,10 +1956,10 @@
         <v>36.8</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1979,10 +1979,10 @@
         <v>37.1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2002,10 +2002,10 @@
         <v>37.2</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2623,10 +2623,10 @@
         <v>36.9</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2646,10 +2646,10 @@
         <v>36.9</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2715,10 +2715,10 @@
         <v>36.9</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -4670,7 +4670,7 @@
         <v>38</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -4785,7 +4785,7 @@
         <v>38.1</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -4808,7 +4808,7 @@
         <v>38.1</v>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>38.1</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -4877,7 +4877,7 @@
         <v>38.1</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>38.1</v>
       </c>
       <c r="F197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -4930,6 +4930,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>